--- a/config_1.5/prop_clear_server.xlsx
+++ b/config_1.5/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>id|行号</t>
   </si>
@@ -324,6 +324,14 @@
   </si>
   <si>
     <t>元旦金元宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典星星道具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hlqd_xx</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +404,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +465,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -499,7 +513,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,6 +641,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,11 +925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1503,6 +1523,23 @@
       </c>
       <c r="E34" s="41" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="44">
+        <v>1609804800</v>
+      </c>
+      <c r="D35" s="44">
+        <v>1610380799</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.5/prop_clear_server.xlsx
+++ b/config_1.5/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>id|行号</t>
   </si>
@@ -332,6 +332,14 @@
   </si>
   <si>
     <t>prop_hlqd_xx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包抽奖券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,11 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1538,8 +1546,25 @@
       <c r="D35" s="44">
         <v>1610380799</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="44" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="44">
+        <v>1609804800</v>
+      </c>
+      <c r="D36" s="44">
+        <v>1610380799</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
